--- a/static/download/2014/RP1_FLT_EFF_2014.xlsx
+++ b/static/download/2014/RP1_FLT_EFF_2014.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="FLT_EFF_YY" sheetId="1" r:id="rId3"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>Data source</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -36,7 +39,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>Period: JAN-DEC</t>
@@ -160,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -180,8 +183,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -228,18 +231,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="9.0"/>
       <color rgb="FF333399"/>
       <name val="Calibri"/>
@@ -275,7 +266,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -308,6 +300,28 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -372,179 +386,189 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -553,32 +577,35 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="13.43"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="13.14"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="11.75"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
+    <col customWidth="1" min="7" max="7" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -597,30 +624,29 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Average_horizontal_en-route_inefficiency","Avg. horizontal en route inefficiency")</f>
-        <v>Avg. horizontal en route inefficiency</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7">
         <v>42034.0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>42004.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -635,12 +661,12 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -648,36 +674,36 @@
     </row>
     <row r="5" ht="38.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="27">
         <v>0.0542</v>
@@ -692,13 +718,13 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
@@ -711,13 +737,13 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
@@ -730,13 +756,13 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
@@ -749,13 +775,13 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
@@ -768,13 +794,13 @@
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36">
@@ -799,21 +825,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="6" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="7.88"/>
+    <col customWidth="1" min="6" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -832,76 +861,74 @@
       <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Average_horizontal_en-route_inefficiency","Avg. horizontal en route inefficiency")</f>
-        <v>Avg. horizontal en route inefficiency</v>
-      </c>
-      <c r="G1" s="42"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>4</v>
+      <c r="A2" s="42" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="7">
         <v>42034.0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>42004.0</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="44" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
-      </c>
-      <c r="G2" s="42"/>
+      <c r="E2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>26</v>
       </c>
+      <c r="D4" s="45" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="46"/>
+        <v>29</v>
+      </c>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="46">
         <v>40909.0</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>29</v>
+      <c r="D5" s="47" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="29">
         <v>0.0505</v>
@@ -909,20 +936,20 @@
       <c r="F5" s="29">
         <v>0.0305</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="46">
         <v>40940.0</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>30</v>
+      <c r="D6" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="29">
         <v>0.0513</v>
@@ -930,20 +957,20 @@
       <c r="F6" s="29">
         <v>0.0312</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="46">
         <v>40969.0</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>31</v>
+      <c r="D7" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="29">
         <v>0.0508</v>
@@ -951,20 +978,20 @@
       <c r="F7" s="29">
         <v>0.0307</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <v>41000.0</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>32</v>
+      <c r="D8" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="29">
         <v>0.0518</v>
@@ -972,20 +999,20 @@
       <c r="F8" s="29">
         <v>0.0321</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>41030.0</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>33</v>
+      <c r="D9" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="29">
         <v>0.0517</v>
@@ -993,20 +1020,20 @@
       <c r="F9" s="29">
         <v>0.0323</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>41061.0</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>34</v>
+      <c r="D10" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="29">
         <v>0.0517</v>
@@ -1014,20 +1041,20 @@
       <c r="F10" s="29">
         <v>0.0326</v>
       </c>
-      <c r="G10" s="46"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="46">
         <v>41091.0</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>35</v>
+      <c r="D11" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="29">
         <v>0.0514</v>
@@ -1035,20 +1062,20 @@
       <c r="F11" s="29">
         <v>0.0325</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <v>41122.0</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>36</v>
+      <c r="D12" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="29">
         <v>0.0505</v>
@@ -1056,20 +1083,20 @@
       <c r="F12" s="29">
         <v>0.031</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>41153.0</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>37</v>
+      <c r="D13" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="29">
         <v>0.053</v>
@@ -1077,20 +1104,20 @@
       <c r="F13" s="29">
         <v>0.0328</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="46">
         <v>41183.0</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>38</v>
+      <c r="D14" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="29">
         <v>0.0514</v>
@@ -1098,20 +1125,20 @@
       <c r="F14" s="29">
         <v>0.0316</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="25">
         <v>2012.0</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="46">
         <v>41214.0</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>39</v>
+      <c r="D15" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="29">
         <v>0.053</v>
@@ -1119,20 +1146,20 @@
       <c r="F15" s="29">
         <v>0.0317</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="33">
         <v>2012.0</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="48">
         <v>41244.0</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>40</v>
+      <c r="D16" s="49" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="37">
         <v>0.0512</v>
@@ -1140,41 +1167,41 @@
       <c r="F16" s="37">
         <v>0.0306</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="53">
+      <c r="A17" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="51">
         <v>2013.0</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="52">
         <v>41275.0</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="56">
+      <c r="D17" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="54">
         <v>0.051</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="54">
         <v>0.0309</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="46">
         <v>41306.0</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>30</v>
+      <c r="D18" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="E18" s="29">
         <v>0.0516</v>
@@ -1182,20 +1209,20 @@
       <c r="F18" s="29">
         <v>0.031</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="46">
         <v>41334.0</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>31</v>
+      <c r="D19" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="29">
         <v>0.0499</v>
@@ -1203,20 +1230,20 @@
       <c r="F19" s="29">
         <v>0.03</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="46">
         <v>41365.0</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>32</v>
+      <c r="D20" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="29">
         <v>0.0507</v>
@@ -1224,20 +1251,20 @@
       <c r="F20" s="29">
         <v>0.0307</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="46">
         <v>41395.0</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>33</v>
+      <c r="D21" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="29">
         <v>0.0522</v>
@@ -1245,20 +1272,20 @@
       <c r="F21" s="29">
         <v>0.0322</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="46">
         <v>41426.0</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>34</v>
+      <c r="D22" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="E22" s="29">
         <v>0.0531</v>
@@ -1266,20 +1293,20 @@
       <c r="F22" s="29">
         <v>0.0334</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="46">
         <v>41456.0</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>35</v>
+      <c r="D23" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="29">
         <v>0.0513</v>
@@ -1287,20 +1314,20 @@
       <c r="F23" s="29">
         <v>0.0321</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="46">
         <v>41487.0</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>36</v>
+      <c r="D24" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="E24" s="29">
         <v>0.0501</v>
@@ -1308,20 +1335,20 @@
       <c r="F24" s="29">
         <v>0.0308</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="46">
         <v>41518.0</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>37</v>
+      <c r="D25" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="E25" s="29">
         <v>0.0518</v>
@@ -1329,20 +1356,20 @@
       <c r="F25" s="29">
         <v>0.0319</v>
       </c>
-      <c r="G25" s="46"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="46">
         <v>41548.0</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>38</v>
+      <c r="D26" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="E26" s="29">
         <v>0.0516</v>
@@ -1350,20 +1377,20 @@
       <c r="F26" s="29">
         <v>0.0317</v>
       </c>
-      <c r="G26" s="46"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="25">
         <v>2013.0</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="46">
         <v>41579.0</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>39</v>
+      <c r="D27" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="29">
         <v>0.0496</v>
@@ -1371,20 +1398,20 @@
       <c r="F27" s="29">
         <v>0.0296</v>
       </c>
-      <c r="G27" s="46"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="33">
         <v>2013.0</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="48">
         <v>41609.0</v>
       </c>
-      <c r="D28" s="51" t="s">
-        <v>40</v>
+      <c r="D28" s="49" t="s">
+        <v>41</v>
       </c>
       <c r="E28" s="37">
         <v>0.0492</v>
@@ -1392,41 +1419,41 @@
       <c r="F28" s="37">
         <v>0.0291</v>
       </c>
-      <c r="G28" s="46"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="53">
+      <c r="A29" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="51">
         <v>2014.0</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="52">
         <v>41640.0</v>
       </c>
-      <c r="D29" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="56">
+      <c r="D29" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="54">
         <v>0.0487</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="54">
         <v>0.0274</v>
       </c>
-      <c r="G29" s="46"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="46">
         <v>41671.0</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>30</v>
+      <c r="D30" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="E30" s="29">
         <v>0.0482</v>
@@ -1434,20 +1461,20 @@
       <c r="F30" s="29">
         <v>0.0274</v>
       </c>
-      <c r="G30" s="46"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="46">
         <v>41699.0</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>31</v>
+      <c r="D31" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="E31" s="29">
         <v>0.0484</v>
@@ -1455,20 +1482,20 @@
       <c r="F31" s="29">
         <v>0.0275</v>
       </c>
-      <c r="G31" s="46"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="46">
         <v>41730.0</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>32</v>
+      <c r="D32" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="E32" s="29">
         <v>0.049</v>
@@ -1476,20 +1503,20 @@
       <c r="F32" s="29">
         <v>0.0281</v>
       </c>
-      <c r="G32" s="46"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="46">
         <v>41760.0</v>
       </c>
-      <c r="D33" s="49" t="s">
-        <v>33</v>
+      <c r="D33" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="E33" s="29">
         <v>0.0494</v>
@@ -1497,20 +1524,20 @@
       <c r="F33" s="29">
         <v>0.0289</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="46">
         <v>41791.0</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>34</v>
+      <c r="D34" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="E34" s="29">
         <v>0.0499</v>
@@ -1518,20 +1545,20 @@
       <c r="F34" s="29">
         <v>0.0298</v>
       </c>
-      <c r="G34" s="46"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="46">
         <v>41821.0</v>
       </c>
-      <c r="D35" s="49" t="s">
-        <v>35</v>
+      <c r="D35" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="E35" s="29">
         <v>0.0495</v>
@@ -1539,20 +1566,20 @@
       <c r="F35" s="29">
         <v>0.0298</v>
       </c>
-      <c r="G35" s="46"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="46">
         <v>41852.0</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>36</v>
+      <c r="D36" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="E36" s="29">
         <v>0.0485</v>
@@ -1560,20 +1587,20 @@
       <c r="F36" s="29">
         <v>0.0281</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="46">
         <v>41883.0</v>
       </c>
-      <c r="D37" s="49" t="s">
-        <v>37</v>
+      <c r="D37" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="E37" s="29">
         <v>0.0498</v>
@@ -1581,20 +1608,20 @@
       <c r="F37" s="29">
         <v>0.029</v>
       </c>
-      <c r="G37" s="46"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="46">
         <v>41913.0</v>
       </c>
-      <c r="D38" s="49" t="s">
-        <v>38</v>
+      <c r="D38" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="E38" s="29">
         <v>0.0492</v>
@@ -1602,20 +1629,20 @@
       <c r="F38" s="29">
         <v>0.028</v>
       </c>
-      <c r="G38" s="46"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="46">
         <v>41944.0</v>
       </c>
-      <c r="D39" s="49" t="s">
-        <v>39</v>
+      <c r="D39" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="E39" s="29">
         <v>0.0486</v>
@@ -1623,20 +1650,20 @@
       <c r="F39" s="29">
         <v>0.0271</v>
       </c>
-      <c r="G39" s="46"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" s="33">
         <v>2014.0</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="48">
         <v>41974.0</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>40</v>
+      <c r="D40" s="49" t="s">
+        <v>41</v>
       </c>
       <c r="E40" s="37">
         <v>0.0479</v>
@@ -1644,166 +1671,168 @@
       <c r="F40" s="37">
         <v>0.026</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
-    <hyperlink r:id="rId2" ref="F2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="12.14"/>
-    <col customWidth="1" min="3" max="3" width="11.86"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="6" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="10.63"/>
+    <col customWidth="1" min="3" max="3" width="10.38"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="6" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>42</v>
       </c>
+      <c r="B1" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="59">
+      <c r="A2" s="57">
         <v>41410.0</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>45</v>
       </c>
+      <c r="D2" s="58" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
